--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3160828.939479638</v>
+        <v>3158576.859768433</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97.32228826427155</v>
+        <v>93.52676208877617</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>10.93787135974287</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,13 +874,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>187.6171084012677</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021060049</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>79.76470074482921</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>18.00433147567331</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>133.692802130631</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>129.5398680316079</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620232</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>157.7822070347172</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187897</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.097053482539948e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.097053482539948e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505259</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S13" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187888</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766861</v>
+        <v>109.0404882242268</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187895</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289866</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187906</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>1.036106066843284e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>1.036106066843284e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>126.992743550662</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>1.036106066843284e-13</v>
       </c>
     </row>
     <row r="23">
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716956</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>59.96838802184548</v>
+        <v>101.696957004698</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>7.613741235233689</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412183</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532361</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187911</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.155784569979</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012181</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187904</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>1.340843145326603e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.340843145326603e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730789</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>1.340843145326603e-13</v>
       </c>
     </row>
     <row r="44">
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883619</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1418.660964416652</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>223.7776581231568</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>77.56047134101462</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>945.3964936596652</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>945.3964936596652</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>945.3964936596652</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>945.3964936596652</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>547.3108956025787</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>1617.939223126803</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>700.1577228956174</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>531.2215399677106</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1909.108354678722</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1620.005487804365</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1620.005487804365</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1330.588317767405</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>1102.598766869387</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>881.8061877258572</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1736.589769957182</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1367.62725301677</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1009.36155441002</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>623.5733018117753</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>212.5873970221677</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>201.5553509075683</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4811,10 +4811,10 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.09759726723</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997115</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2513.328941997115</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2123.189610021303</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>188.3660221513988</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>188.3660221513988</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>188.3660221513988</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>188.3660221513988</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4960,16 +4960,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1767.918581386758</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>370.0144869816385</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.355259300791</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314253</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314253</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068011</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.355259300791</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703105</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424035</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282757</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458824</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551879</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004717</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406473</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168652</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192612</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398598</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474788</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466578</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123007</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852893</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591813</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616001</v>
       </c>
     </row>
     <row r="21">
@@ -5814,43 +5814,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249848</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138405</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>766.1780053015045</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>618.2649117191113</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>471.3749642212008</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>304.1788649360806</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138406</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797197</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192622</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6051,40 +6051,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637309</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797748</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6163,13 +6163,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487568</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D28" t="n">
-        <v>545.3854261579756</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6391,7 +6391,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6400,13 +6400,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487568</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
         <v>852.852361107581</v>
@@ -6470,7 +6470,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6479,34 +6479,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>565.7099969556954</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>415.5933575433596</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>415.5933575433596</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>268.7034100454492</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>101.5073107603292</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6628,7 +6628,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6637,13 +6637,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487568</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,13 +6780,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1025.119922845745</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6865,7 +6865,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,13 +6874,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487568</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,16 +6932,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683292</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404223</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404223</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>606.6423399580292</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>459.7523924601188</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7102,7 +7102,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7111,13 +7111,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487568</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168645</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121623</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297691</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297689</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703095</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004717</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168647</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273917</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803941</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516149</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1058.18352155162</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178172</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3584617859344</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2418223735986</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912052</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.132629506085</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482829</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075776</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332384</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239599</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397191</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>924.8344286397191</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1552.432392194326</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2104.342122433614</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,49 +7807,49 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711714</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194177</v>
+        <v>58.206332874401</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922591</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>13.30196929556202</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408522</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>86.46557462472369</v>
+        <v>44.73700564187118</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>132.6809716109902</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876517</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903276</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372229005</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>35.12774237125775</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844822914</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>717842.2100639895</v>
+        <v>717842.2100639894</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>717842.2100639894</v>
+        <v>717842.2100639893</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287557</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="H2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="K2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="L2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="O2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287555</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.84042391992989e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>8.288848534746272e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.22759808821138e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.020896417157385e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.072674516261282e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181795</v>
       </c>
       <c r="F4" t="n">
+        <v>12386.92018181803</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12386.92018181796</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12386.92018181792</v>
+      </c>
+      <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="G4" t="n">
-        <v>12386.92018181809</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12386.92018181814</v>
-      </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181788</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181791</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26485,10 +26485,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26503,10 +26503,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809841.0926109076</v>
+        <v>-809841.092610907</v>
       </c>
       <c r="C6" t="n">
-        <v>518903.653116685</v>
+        <v>518903.6531166853</v>
       </c>
       <c r="D6" t="n">
-        <v>518903.6531166853</v>
+        <v>518903.6531166856</v>
       </c>
       <c r="E6" t="n">
-        <v>267331.3629156751</v>
+        <v>267296.6249902392</v>
       </c>
       <c r="F6" t="n">
-        <v>592743.8247230306</v>
+        <v>592709.0867975947</v>
       </c>
       <c r="G6" t="n">
-        <v>592743.8247230302</v>
+        <v>592709.0867975949</v>
       </c>
       <c r="H6" t="n">
-        <v>592743.8247230307</v>
+        <v>592709.0867975944</v>
       </c>
       <c r="I6" t="n">
-        <v>592743.8247230301</v>
+        <v>592709.0867975943</v>
       </c>
       <c r="J6" t="n">
-        <v>375212.6223257526</v>
+        <v>375177.8844003174</v>
       </c>
       <c r="K6" t="n">
-        <v>592743.8247230304</v>
+        <v>592709.0867975942</v>
       </c>
       <c r="L6" t="n">
-        <v>592743.8247230301</v>
+        <v>592709.0867975943</v>
       </c>
       <c r="M6" t="n">
-        <v>507688.7967875181</v>
+        <v>507654.0588620825</v>
       </c>
       <c r="N6" t="n">
-        <v>592743.8247230302</v>
+        <v>592709.0867975947</v>
       </c>
       <c r="O6" t="n">
-        <v>592743.8247230303</v>
+        <v>592709.0867975947</v>
       </c>
       <c r="P6" t="n">
-        <v>592743.8247230303</v>
+        <v>592709.0867975946</v>
       </c>
     </row>
   </sheetData>
@@ -26774,10 +26774,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26799,19 +26799,19 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.70828809965</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.70828809965</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.2505288371554e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.036106066843284e-13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.340843145326603e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.2505288371554e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.036106066843284e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>285.411553399209</v>
+        <v>289.2070795747044</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>85.41454905009522</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>64.52053492256027</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616613</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>306.4732379112244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>201.5446178004959</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>160.9149622566894</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>240.1912326468612</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>128.4296311708957</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.570346970603989e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.919180681745447e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.036106066843281e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.036106066843284e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-5.779126741819878e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-7.490550278806448e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-1.58095758706622e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>-1.580957587066223e-13</v>
       </c>
     </row>
     <row r="41">
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130949</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,28 +32072,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>641.255575077084</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,7 +32102,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,31 +32315,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>346.9084613860359</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175702</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,37 +32546,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>460.9249101897652</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32740,7 +32740,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32792,28 +32792,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>291.8940795642889</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32880,7 +32880,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32977,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,37 +33020,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575224</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33117,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,37 +33257,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663262</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33451,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33500,22 +33500,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153323</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
@@ -33524,7 +33524,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33591,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162543</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33737,31 +33737,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>485.11270320829</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162578</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33925,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,37 +33968,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500031</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34065,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>622.421103618263</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862126</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O42" t="n">
-        <v>653.3850396373771</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485293</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418562</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081754</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473077</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437247</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>314.5984986256085</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485293</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418562</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707336</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937507</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>212.9340539717057</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
         <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902975</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>322.370530409891</v>
       </c>
       <c r="M21" t="n">
-        <v>235.5010321525766</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>151.9123054782673</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36525,7 +36525,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>101.8925903961643</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418906</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.360777931999</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>342.5164587638456</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462706</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.6592569279849</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774986</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678999</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>483.8667238383888</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O42" t="n">
-        <v>510.7887951929326</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789222</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295337</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M43" t="n">
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367734</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774986</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678999</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674335</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992803</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>180.6240912112782</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789222</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
